--- a/Blood_meal_analysis_example_data.xlsx
+++ b/Blood_meal_analysis_example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiao\Mosquito viral metagenomic\uploaded script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7277B5-F03E-45C0-898C-7FD65F8B11FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C0BEA9-A1D5-47F7-B57C-303ED99824FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1770" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="21">
   <si>
     <t>K1</t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>Nasalis</t>
-  </si>
-  <si>
-    <t>Dipus</t>
-  </si>
-  <si>
-    <t>Eothenomys</t>
   </si>
   <si>
     <t>Genus</t>
@@ -436,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918A3C1A-030F-430D-A81C-F01025E7E9BA}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,10 +445,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -465,7 +459,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -480,7 +474,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -494,7 +488,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -508,7 +502,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -522,7 +516,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -536,7 +530,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -551,7 +545,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -566,7 +560,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -581,13 +575,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -595,13 +589,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -610,10 +604,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -624,10 +618,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -635,14 +629,13 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -653,24 +646,24 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -681,27 +674,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -709,27 +702,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -737,24 +730,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -765,10 +758,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -779,10 +772,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -793,27 +786,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -821,27 +814,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -849,13 +842,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -863,13 +856,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -877,24 +870,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -905,10 +898,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -919,13 +912,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -933,27 +926,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -961,27 +954,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -989,41 +982,41 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1031,41 +1024,41 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1073,13 +1066,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1087,13 +1080,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1101,13 +1094,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1115,41 +1108,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1157,13 +1150,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1171,41 +1164,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1213,27 +1206,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1241,27 +1234,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1269,27 +1262,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1297,13 +1290,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1311,13 +1304,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1325,27 +1318,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1353,239 +1346,15 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81">
         <v>0</v>
       </c>
     </row>
